--- a/MainTop/17.04.2024/Таня_печать_p3.xlsx
+++ b/MainTop/17.04.2024/Таня_печать_p3.xlsx
@@ -20,12 +20,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t xml:space="preserve">Артикул</t>
   </si>
   <si>
     <t xml:space="preserve">Num_Copies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Барби фон розовый круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Барт с рогаткой Симпсоны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котенок в розовой кружке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котенок с цветами ромашками</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котята на качелях</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Динозавр в очках ест бургер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Собачка в шляпе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Собачка в очках язык</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Собачка синий бантик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Собачка красный бантик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Эльза Анна Холодное сердце паттерн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Эльза Холодное сердце синий круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Жирафвыглядывает замок одежды</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Марвел супергерои 4 верт фона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Русалочка поправляет прическу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Миньоны на банане</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Минни Маус Единорог розовый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Сова розовая</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Щенячий патруль 2 Маршал Крепыш</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">Термонаклейка П</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">окемоны Пикачу и Эш Кетчум</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Винни Пух и друзья на шаре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Зайчик синий комбинезон шагает</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Зайчик ромашка в руках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Акула серфинг в очках</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Соник Ежик бежит пис мир рука</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Соник Ежик бежит синий фон краски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук Лого позади</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук Лого круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук синий желтый круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук синий белый круг</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук круг надпись снизу</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Человек Паук круг красный синий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Спанч Боб и друзья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Спанч Боб и друзья Keep Vibes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Лило и Стич сидят</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единороги голубой и розовый</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единорог с ромашкой сердечки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Три Миньона бегут</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Котенок с шариком сердечко</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Миньон с бананами</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Зайка балерина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Динозавр в очках играет на гитаре</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Единорог ресницы цветы уши</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Лисенок с кружкой</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Термонаклейка Микки Маус показывает язык</t>
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Мишка красная гоночная машина</t>
@@ -116,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -142,6 +295,19 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -149,7 +315,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,8 +324,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCCCCC"/>
-        <bgColor rgb="FFCCCCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -208,12 +380,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -251,7 +431,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -294,15 +474,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C73" activeCellId="0" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.82"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -314,7 +494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -322,7 +502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -330,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -338,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -346,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -354,7 +534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -362,7 +542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -370,7 +550,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -378,7 +558,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -386,7 +566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -394,7 +574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -402,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -410,7 +590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
@@ -418,7 +598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -426,7 +606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
@@ -434,7 +614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
@@ -442,7 +622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -450,7 +630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -458,7 +638,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
@@ -466,15 +646,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
@@ -482,7 +662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -490,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
@@ -498,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
@@ -506,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
@@ -514,7 +694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
@@ -522,12 +702,372 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
